--- a/hlm2021_nb/erie.xlsx
+++ b/hlm2021_nb/erie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbr/Documents/GitHub/r-projects/hlm2021_nb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9EE47F-78EE-344B-89F7-FDE1F05DF754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A35DAC-016E-734A-BDAF-22DC5C8382C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{B856B97F-0C03-1347-9D24-56AEBEBD8981}"/>
+    <workbookView xWindow="10360" yWindow="2740" windowWidth="28040" windowHeight="17440" xr2:uid="{B856B97F-0C03-1347-9D24-56AEBEBD8981}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>classe</t>
-  </si>
-  <si>
-    <t>id_enfant</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>age</t>
   </si>
@@ -51,41 +45,128 @@
     <t>date_mesure</t>
   </si>
   <si>
-    <t>emo3_1</t>
-  </si>
-  <si>
-    <t>emo3_2</t>
-  </si>
-  <si>
-    <t>emo3_3</t>
-  </si>
-  <si>
-    <t>cps2_1</t>
-  </si>
-  <si>
-    <t>cps2_2</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>code</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>emo5_1</t>
+  </si>
+  <si>
+    <t>emo5_2</t>
+  </si>
+  <si>
+    <t>emo5_3</t>
+  </si>
+  <si>
+    <t>emo5_4</t>
+  </si>
+  <si>
+    <t>emo5_5</t>
+  </si>
+  <si>
+    <t>cps26_1</t>
+  </si>
+  <si>
+    <t>cps26_2</t>
+  </si>
+  <si>
+    <t>cps26_3</t>
+  </si>
+  <si>
+    <t>cps26_4</t>
+  </si>
+  <si>
+    <t>cps26_5</t>
+  </si>
+  <si>
+    <t>cps26_6</t>
+  </si>
+  <si>
+    <t>cps26_7</t>
+  </si>
+  <si>
+    <t>cps26_8</t>
+  </si>
+  <si>
+    <t>cps26_9</t>
+  </si>
+  <si>
+    <t>cps26_10</t>
+  </si>
+  <si>
+    <t>cps26_11</t>
+  </si>
+  <si>
+    <t>cps26_12</t>
+  </si>
+  <si>
+    <t>cps26_13</t>
+  </si>
+  <si>
+    <t>cps26_14</t>
+  </si>
+  <si>
+    <t>cps26_15</t>
+  </si>
+  <si>
+    <t>cps26_16</t>
+  </si>
+  <si>
+    <t>cps26_17</t>
+  </si>
+  <si>
+    <t>cps26_18</t>
+  </si>
+  <si>
+    <t>cps26_19</t>
+  </si>
+  <si>
+    <t>cps26_20</t>
+  </si>
+  <si>
+    <t>cps26_21</t>
+  </si>
+  <si>
+    <t>cps26_22</t>
+  </si>
+  <si>
+    <t>cps26_23</t>
+  </si>
+  <si>
+    <t>cps26_24</t>
+  </si>
+  <si>
+    <t>cps26_25</t>
+  </si>
+  <si>
+    <t>cps26_26</t>
+  </si>
+  <si>
+    <t>123a15</t>
+  </si>
+  <si>
+    <t>123a25</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,6 +210,140 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657679</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>589643</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6C399C-E363-0441-9526-3940D412D995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4796518" y="1474107"/>
+          <a:ext cx="2415268" cy="3027589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>code : code</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> de la classe au temps mesuré (exemple : 123a25)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>id : code unique pour reconnaitre l'enfant entre le temps et le temps 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>age : age</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> sexe : sexe g ou f</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>emo : .... scores emo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>cps : ... scores cps</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>date_mesure : date de la mesure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>par : erié</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,143 +643,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B7F297-EB78-0248-B58D-84709A55E108}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>44359</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2">
+        <v>5</v>
+      </c>
+      <c r="AC2">
+        <v>5</v>
+      </c>
+      <c r="AD2">
+        <v>5</v>
+      </c>
+      <c r="AE2">
+        <v>5</v>
+      </c>
+      <c r="AF2">
+        <v>5</v>
+      </c>
+      <c r="AG2">
+        <v>5</v>
+      </c>
+      <c r="AH2">
+        <v>5</v>
+      </c>
+      <c r="AI2">
+        <v>5</v>
+      </c>
+      <c r="AJ2">
+        <v>5</v>
+      </c>
+      <c r="AK2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>5</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AB3">
+        <v>5</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AE3">
+        <v>5</v>
+      </c>
+      <c r="AF3">
+        <v>5</v>
+      </c>
+      <c r="AG3">
+        <v>5</v>
+      </c>
+      <c r="AH3">
+        <v>5</v>
+      </c>
+      <c r="AI3">
+        <v>5</v>
+      </c>
+      <c r="AJ3">
+        <v>5</v>
+      </c>
+      <c r="AK3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44359</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44359</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>5</v>
+      </c>
+      <c r="Y4">
+        <v>5</v>
+      </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>5</v>
+      </c>
+      <c r="AB4">
+        <v>5</v>
+      </c>
+      <c r="AC4">
+        <v>5</v>
+      </c>
+      <c r="AD4">
+        <v>5</v>
+      </c>
+      <c r="AE4">
+        <v>5</v>
+      </c>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AG4">
+        <v>5</v>
+      </c>
+      <c r="AH4">
+        <v>5</v>
+      </c>
+      <c r="AI4">
+        <v>5</v>
+      </c>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
+      <c r="AK4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/hlm2021_nb/erie.xlsx
+++ b/hlm2021_nb/erie.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbr/Documents/GitHub/r-projects/hlm2021_nb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A35DAC-016E-734A-BDAF-22DC5C8382C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B14E8F-B63E-F04F-A7D6-F3471E486812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="2740" windowWidth="28040" windowHeight="17440" xr2:uid="{B856B97F-0C03-1347-9D24-56AEBEBD8981}"/>
+    <workbookView xWindow="3960" yWindow="8840" windowWidth="28040" windowHeight="17440" xr2:uid="{B856B97F-0C03-1347-9D24-56AEBEBD8981}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>age</t>
   </si>
@@ -147,17 +147,80 @@
     <t>123a15</t>
   </si>
   <si>
-    <t>123a25</t>
-  </si>
-  <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Marc Weyrich</t>
+  </si>
+  <si>
+    <t>123b15</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Virginie Granger</t>
+  </si>
+  <si>
+    <t>123c15</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>123d15</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>Chloé Bruchez</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>123f15</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>123g15</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>123h15</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>Michael Kälin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +230,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,9 +262,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B7F297-EB78-0248-B58D-84709A55E108}">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -768,313 +840,723 @@
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-      <c r="Q2">
-        <v>5</v>
-      </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <v>5</v>
-      </c>
-      <c r="U2">
-        <v>5</v>
-      </c>
-      <c r="V2">
-        <v>5</v>
-      </c>
-      <c r="W2">
-        <v>5</v>
-      </c>
-      <c r="X2">
-        <v>5</v>
-      </c>
-      <c r="Y2">
-        <v>5</v>
-      </c>
-      <c r="Z2">
-        <v>5</v>
-      </c>
-      <c r="AA2">
-        <v>5</v>
-      </c>
-      <c r="AB2">
-        <v>5</v>
-      </c>
-      <c r="AC2">
-        <v>5</v>
-      </c>
-      <c r="AD2">
-        <v>5</v>
-      </c>
-      <c r="AE2">
-        <v>5</v>
-      </c>
-      <c r="AF2">
-        <v>5</v>
-      </c>
-      <c r="AG2">
-        <v>5</v>
-      </c>
-      <c r="AH2">
-        <v>5</v>
-      </c>
-      <c r="AI2">
-        <v>5</v>
-      </c>
-      <c r="AJ2">
-        <v>5</v>
-      </c>
-      <c r="AK2">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44457</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2</v>
+      </c>
+      <c r="U2" s="1">
+        <v>5</v>
+      </c>
+      <c r="V2" s="1">
+        <v>4</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>5</v>
-      </c>
-      <c r="S3">
-        <v>5</v>
-      </c>
-      <c r="T3">
-        <v>5</v>
-      </c>
-      <c r="U3">
-        <v>5</v>
-      </c>
-      <c r="V3">
-        <v>5</v>
-      </c>
-      <c r="W3">
-        <v>5</v>
-      </c>
-      <c r="X3">
-        <v>5</v>
-      </c>
-      <c r="Y3">
-        <v>5</v>
-      </c>
-      <c r="Z3">
-        <v>5</v>
-      </c>
-      <c r="AA3">
-        <v>5</v>
-      </c>
-      <c r="AB3">
-        <v>5</v>
-      </c>
-      <c r="AC3">
-        <v>5</v>
-      </c>
-      <c r="AD3">
-        <v>5</v>
-      </c>
-      <c r="AE3">
-        <v>5</v>
-      </c>
-      <c r="AF3">
-        <v>5</v>
-      </c>
-      <c r="AG3">
-        <v>5</v>
-      </c>
-      <c r="AH3">
-        <v>5</v>
-      </c>
-      <c r="AI3">
-        <v>5</v>
-      </c>
-      <c r="AJ3">
-        <v>5</v>
-      </c>
-      <c r="AK3">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44474</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>3</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>5</v>
+      </c>
+      <c r="U3" s="1">
+        <v>5</v>
+      </c>
+      <c r="V3" s="1">
+        <v>5</v>
+      </c>
+      <c r="W3" s="1">
+        <v>5</v>
+      </c>
+      <c r="X3" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44476</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>5</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>5</v>
+      </c>
+      <c r="W4" s="1">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>5</v>
-      </c>
-      <c r="S4">
-        <v>5</v>
-      </c>
-      <c r="T4">
-        <v>5</v>
-      </c>
-      <c r="U4">
-        <v>5</v>
-      </c>
-      <c r="V4">
-        <v>5</v>
-      </c>
-      <c r="W4">
-        <v>5</v>
-      </c>
-      <c r="X4">
-        <v>5</v>
-      </c>
-      <c r="Y4">
-        <v>5</v>
-      </c>
-      <c r="Z4">
-        <v>5</v>
-      </c>
-      <c r="AA4">
-        <v>5</v>
-      </c>
-      <c r="AB4">
-        <v>5</v>
-      </c>
-      <c r="AC4">
-        <v>5</v>
-      </c>
-      <c r="AD4">
-        <v>5</v>
-      </c>
-      <c r="AE4">
-        <v>5</v>
-      </c>
-      <c r="AF4">
-        <v>5</v>
-      </c>
-      <c r="AG4">
-        <v>5</v>
-      </c>
-      <c r="AH4">
-        <v>5</v>
-      </c>
-      <c r="AI4">
-        <v>5</v>
-      </c>
-      <c r="AJ4">
-        <v>5</v>
-      </c>
-      <c r="AK4">
-        <v>5</v>
-      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1">
+        <v>5</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>5</v>
+      </c>
+      <c r="V5" s="1">
+        <v>5</v>
+      </c>
+      <c r="W5" s="1">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="str">
+        <f>"123e15"</f>
+        <v>123e15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/hlm2021_nb/erie.xlsx
+++ b/hlm2021_nb/erie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbr/Documents/GitHub/r-projects/hlm2021_nb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B14E8F-B63E-F04F-A7D6-F3471E486812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0776DF31-D974-4E4E-A5D8-A3C00419F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="8840" windowWidth="28040" windowHeight="17440" xr2:uid="{B856B97F-0C03-1347-9D24-56AEBEBD8981}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{B856B97F-0C03-1347-9D24-56AEBEBD8981}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t>age</t>
   </si>
@@ -214,13 +214,70 @@
   </si>
   <si>
     <t>Michael Kälin</t>
+  </si>
+  <si>
+    <t>trop petit</t>
+  </si>
+  <si>
+    <t>123i15</t>
+  </si>
+  <si>
+    <t>i1</t>
+  </si>
+  <si>
+    <t>123j15</t>
+  </si>
+  <si>
+    <t>j1</t>
+  </si>
+  <si>
+    <t>123k15</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>PAS DE PRISE DE MESURE (élève trop jeune et pas accès au langage)</t>
+  </si>
+  <si>
+    <t>123l15</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>123m15</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>PAS DE PRISE DE MESURE (interenvtion sur toute la classe)</t>
+  </si>
+  <si>
+    <t>123n15</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>123p15</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>Aline Lemasson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,13 +287,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,11 +312,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,16 +336,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>657679</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>589643</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>11339</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646339</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -312,8 +360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4796518" y="1474107"/>
-          <a:ext cx="2415268" cy="3027589"/>
+          <a:off x="2562679" y="4218214"/>
+          <a:ext cx="2415267" cy="3027589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -715,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B7F297-EB78-0248-B58D-84709A55E108}">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,723 +888,1313 @@
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>44457</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1">
-        <v>5</v>
-      </c>
-      <c r="O2" s="1">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1">
-        <v>4</v>
-      </c>
-      <c r="S2" s="1">
-        <v>3</v>
-      </c>
-      <c r="T2" s="1">
-        <v>2</v>
-      </c>
-      <c r="U2" s="1">
-        <v>5</v>
-      </c>
-      <c r="V2" s="1">
-        <v>4</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK2" s="1">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
+        <v>3</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>3</v>
+      </c>
+      <c r="AF2">
+        <v>2</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>3</v>
+      </c>
+      <c r="AJ2">
+        <v>4</v>
+      </c>
+      <c r="AK2">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>44474</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>4</v>
-      </c>
-      <c r="L3" s="1">
-        <v>5</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1">
-        <v>5</v>
-      </c>
-      <c r="P3" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>5</v>
-      </c>
-      <c r="R3" s="1">
-        <v>3</v>
-      </c>
-      <c r="S3" s="1">
-        <v>3</v>
-      </c>
-      <c r="T3" s="1">
-        <v>5</v>
-      </c>
-      <c r="U3" s="1">
-        <v>5</v>
-      </c>
-      <c r="V3" s="1">
-        <v>5</v>
-      </c>
-      <c r="W3" s="1">
-        <v>5</v>
-      </c>
-      <c r="X3" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK3" s="1">
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>5</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AE3">
+        <v>4</v>
+      </c>
+      <c r="AF3">
+        <v>4</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
+      <c r="AH3">
+        <v>5</v>
+      </c>
+      <c r="AI3">
+        <v>2</v>
+      </c>
+      <c r="AJ3">
+        <v>3</v>
+      </c>
+      <c r="AK3">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>44476</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>5</v>
-      </c>
-      <c r="N4" s="1">
-        <v>4</v>
-      </c>
-      <c r="O4" s="1">
-        <v>5</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>5</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>5</v>
-      </c>
-      <c r="W4" s="1">
-        <v>4</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK4" s="1">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>5</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
+      <c r="AK4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>4</v>
-      </c>
-      <c r="N5" s="1">
-        <v>5</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>5</v>
-      </c>
-      <c r="S5" s="1">
-        <v>5</v>
-      </c>
-      <c r="T5" s="1">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>5</v>
-      </c>
-      <c r="V5" s="1">
-        <v>5</v>
-      </c>
-      <c r="W5" s="1">
-        <v>5</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>3</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>3</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="1">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>5</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>3</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="str">
+      <c r="A6" t="str">
         <f>"123e15"</f>
         <v>123e15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>3</v>
+      </c>
+      <c r="AC8">
+        <v>5</v>
+      </c>
+      <c r="AD8">
+        <v>4</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8">
+        <v>5</v>
+      </c>
+      <c r="AJ8">
+        <v>2</v>
+      </c>
+      <c r="AK8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AB9">
+        <v>3</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AE9">
+        <v>4</v>
+      </c>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+      <c r="AG9">
+        <v>5</v>
+      </c>
+      <c r="AH9">
+        <v>2</v>
+      </c>
+      <c r="AI9">
+        <v>4</v>
+      </c>
+      <c r="AJ9">
+        <v>3</v>
+      </c>
+      <c r="AK9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44498</v>
+      </c>
+      <c r="F11" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>4</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>4</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <v>3</v>
+      </c>
+      <c r="AG11">
+        <v>4</v>
+      </c>
+      <c r="AH11">
+        <v>4</v>
+      </c>
+      <c r="AI11">
+        <v>2</v>
+      </c>
+      <c r="AJ11">
+        <v>4</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44504</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>4</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12">
+        <v>3</v>
+      </c>
+      <c r="AH12">
+        <v>5</v>
+      </c>
+      <c r="AI12">
+        <v>2</v>
+      </c>
+      <c r="AJ12">
+        <v>5</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44511</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>2</v>
+      </c>
+      <c r="AI13">
+        <v>3</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44523</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>3</v>
+      </c>
+      <c r="AC15">
+        <v>4</v>
+      </c>
+      <c r="AD15">
+        <v>3</v>
+      </c>
+      <c r="AE15">
+        <v>5</v>
+      </c>
+      <c r="AF15">
+        <v>5</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>4</v>
+      </c>
+      <c r="AK15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
